--- a/output.xlsx
+++ b/output.xlsx
@@ -749,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -906,7 +906,11 @@
           <t>BC`c</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ø</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>A`aB`bC`c</t>
@@ -948,12 +952,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>000101</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>`b`c</t>
+          <t>`bC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -963,29 +967,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>`a`b`c</t>
+          <t>`aB`bC`c</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>ø</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>`a`b`c</t>
+          <t>A`aB`bC`c</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>001000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>`bC</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -995,25 +999,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>`aB`bC`c</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01245</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A`aB`bC`c</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>000111</t>
+          <t>001001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>`bC`c</t>
+          <t>B`c</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1023,25 +1031,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>`aB`bC`c</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>B`c</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A`aB`bC`c</t>
+          <t>AB`c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>001000</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B`b</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1051,29 +1063,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>`aB`b`c</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>01245</t>
+          <t>ø</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A`aB`bC`c</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>001001</t>
+          <t>010000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B`c</t>
+          <t>`a</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1083,29 +1095,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>B`c</t>
+          <t>`a</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AB`c</t>
+          <t>`a</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>001010</t>
+          <t>010001</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>`a`c</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1115,29 +1127,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>`a`c</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>`a`b`c</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>001011</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BC`c</t>
+          <t>`aC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1147,25 +1159,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BC`c</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>`aBC</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A`aB`bC`c</t>
+          <t>`aBC</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>001100</t>
+          <t>011000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B`b</t>
+          <t>`aB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1175,25 +1191,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>`aB`b`c</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>`aB</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A`aB`bC`c</t>
+          <t>`aBC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>010000</t>
+          <t>011001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>`a</t>
+          <t>`aB`c</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1203,29 +1223,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>`a</t>
+          <t>`aB`c</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>ø</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>`a</t>
+          <t>A`aB`bC`c</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>010001</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>`a`c</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1235,29 +1255,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>`a`c</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>024</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>`a`b`c</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>100001</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>`aC</t>
+          <t>A`c</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1267,29 +1287,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>`aBC</t>
+          <t>AB`c</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>`aBC</t>
+          <t>AB`c</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>010011</t>
+          <t>100010</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>`aC`c</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1299,25 +1319,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>`aBC`c</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A`aB`bC`c</t>
+          <t>ABC</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>100100</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>`a`b</t>
+          <t>A`b</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1327,29 +1351,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>`a`b`c</t>
+          <t>A`aB`b`c</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>ø</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>`a`b`c</t>
+          <t>A`aB`bC`c</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>010101</t>
+          <t>110000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>`a`b`c</t>
+          <t>A`a</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1359,635 +1383,15 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>`a`b`c</t>
+          <t>A`aB</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>ø</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>`a`b`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>010110</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>`a`bC</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>`aB`bC`c</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>010111</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>`a`bC`c</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>`aB`bC`c</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>011000</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>`aB</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>`aB</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>`aBC</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>011001</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>`aB`c</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>`aB`c</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>011010</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>`aBC</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>`aBC</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>`aBC</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>011011</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>`aBC`c</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>`aBC`c</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>011100</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>`aB`b</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>`aB`b`c</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>100000</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>024</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>100001</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>A`c</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>AB`c</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>AB`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>100010</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>AC</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ABC</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>ABC</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>100011</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>AC`c</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ABC`c</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>100100</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>A`b</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>A`aB`b`c</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>100101</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>A`b`c</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>A`aB`b`c</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>100110</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>A`bC</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>100111</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>A`bC`c</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>101000</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>024</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>101001</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>AB`c</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>AB`c</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>AB`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>101010</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ABC</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>ABC</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>ABC</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>101011</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ABC`c</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>ABC`c</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>101100</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>AB`b</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>A`aB`b`c</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>A`aB`bC`c</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>110000</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>A`a</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>A`aB</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
         <is>
           <t>A`aB`bC`c</t>
         </is>
